--- a/Prueba2.xlsx
+++ b/Prueba2.xlsx
@@ -1,30 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\ClusterApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D566D5-8881-4948-B783-4DE3E716A90B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04923AD-878C-439E-9F23-1277ED68D8DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{12F8ED91-FFAB-4533-93E5-003C6E39C85E}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{12F8ED91-FFAB-4533-93E5-003C6E39C85E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1065,9 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66677930-230B-47B5-9D25-5FDE3D50C14E}">
   <dimension ref="A1:K200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
